--- a/doc/2016德晋作息表上传.xlsx
+++ b/doc/2016德晋作息表上传.xlsx
@@ -433,7 +433,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C117"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C114" sqref="C114"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
